--- a/Tabela/Copacabana/Copacabana-8.xlsx
+++ b/Tabela/Copacabana/Copacabana-8.xlsx
@@ -14,360 +14,378 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
+  <si>
+    <t>Telefone</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Faça parte do Ícono Parque Mall - Gastronomia, entretenimento, moda e conveniência. Lojas para locação de com 80m² a 1000m², sem luvas...</t>
-  </si>
-  <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 1.182.000</t>
+  </si>
+  <si>
+    <t>R$ 1.190.000</t>
+  </si>
+  <si>
+    <t>R$ 540.000</t>
+  </si>
+  <si>
+    <t>R$ 800.000</t>
+  </si>
+  <si>
+    <t>R$ 1.700.000</t>
+  </si>
+  <si>
     <t>R$ 750.000</t>
   </si>
   <si>
-    <t>destaque</t>
-  </si>
-  <si>
-    <t>R$ 890.000</t>
-  </si>
-  <si>
-    <t>R$ 635.000</t>
-  </si>
-  <si>
-    <t>R$ 1.680.000</t>
-  </si>
-  <si>
-    <t>R$ 1.100.000</t>
-  </si>
-  <si>
-    <t>R$ 420.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 270.000</t>
-  </si>
-  <si>
-    <t>R$ 580.000</t>
+    <t>R$ 945.000</t>
+  </si>
+  <si>
+    <t>R$ 600.000</t>
+  </si>
+  <si>
+    <t>R$ 450.000</t>
+  </si>
+  <si>
+    <t>R$ 1.089.000</t>
+  </si>
+  <si>
+    <t>pronto para morar</t>
+  </si>
+  <si>
+    <t>R$ 950.000</t>
+  </si>
+  <si>
+    <t>R$ 2.300.000</t>
+  </si>
+  <si>
+    <t>R$ 10.950.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.500</t>
+  </si>
+  <si>
+    <t>R$ 1.104.000</t>
+  </si>
+  <si>
+    <t>R$ 1.200.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.660 IPTU R$ 330</t>
+  </si>
+  <si>
+    <t>condomínioR$ 602 IPTU R$ 64</t>
+  </si>
+  <si>
+    <t>R$ 850.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 750 IPTU R$ 1.800</t>
+  </si>
+  <si>
+    <t>condomínioR$ 900 IPTU R$ 406</t>
+  </si>
+  <si>
+    <t>R$ 475.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650 IPTU R$ 467</t>
+  </si>
+  <si>
+    <t>condomínioR$ 770 IPTU R$ 1.163</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 1.800</t>
+  </si>
+  <si>
+    <t>condomínioR$ 550 IPTU R$ 320</t>
   </si>
   <si>
     <t>R$ 670.000</t>
   </si>
   <si>
-    <t>R$ 490.000</t>
+    <t>condomínioR$ 600 IPTU R$ 120</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.482 IPTU R$ 404</t>
+  </si>
+  <si>
+    <t>R$ 1.130.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 900 IPTU R$ 3.221</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.700 IPTU R$ 1.100</t>
+  </si>
+  <si>
+    <t>condomínioR$ 6.938 IPTU R$ 30.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 500 IPTU R$ 82</t>
+  </si>
+  <si>
+    <t>RUA SOUZA LIMA,N. 310 Apto. 702, COPACABANA - CEP: 22081-010, RIO DE JANEIRO - RIO DE JANEIRO, imóvel Caixa apartamento retomada da Caixa aquisição no estado que se encontra mais i...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.250 IPTU R$ 360</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.800 IPTU R$ 484</t>
+  </si>
+  <si>
+    <t>Apartamento à venda em Copacabana - Posto 6. Imóvel totalmente reformado por arquiteto, silencioso, claro, arejado, fundos, composto por uma ampla sala em dois ambientes, 3 quartos...</t>
+  </si>
+  <si>
+    <t>Conjugadão enorme com sala e quartos separados e todo reformado. Quadríssima!</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 250</t>
+  </si>
+  <si>
+    <t>2 vagas na escritura, em Copacabana!</t>
+  </si>
+  <si>
+    <t>BAIRRO PEIXTO EM FRENTE A PRAÇA. Prédio lindo, com localização privilegiada. Cobertura duplex com reforma recente, claro, silencioso, sol da manha, composto de sala grande com lind...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 580 IPTU R$ 121</t>
+  </si>
+  <si>
+    <t>Cód: SL21227. Excelente Apartamento totalmente reformado. Original dois quartos, atualmente um quarto para aumentar a sala, uma suíte e dependência completa. Imóvel amplo, claro e...</t>
+  </si>
+  <si>
+    <t>Copacabana - Posto 4. Apartamento claro e silencioso, de frente, arejado, com sol da manhã, composto de Hall de entrada, sala em dois ambientes com cachimbo espaçoso, 02 quartos se...</t>
+  </si>
+  <si>
+    <t>Maravilhoso apartamento</t>
+  </si>
+  <si>
+    <t>Cód: CO-SF2002. Apartamento reformado, composto por sala, 2 quartos, (1 suíte), banheiro social, cozinha e área de serviço. Possui 1 vaga de garagem na escritura.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 520 IPTU R$ 1.200</t>
+  </si>
+  <si>
+    <t>condomínioR$ 545 IPTU R$ 103</t>
+  </si>
+  <si>
+    <t>Sol da manhã claro arejado desocupado frontal sala e quarto reformado entrar e morar predio residencial posto 5 junto metrô oportunidade investimento temos outros avaliamos</t>
+  </si>
+  <si>
+    <t>Ótimo ponto, bem claro, ventilação cruzada, apartamento estilo antigo com pé direito alto e cômodos amplos, sala retangular cabendo 2 ou 3 ambientes, vista liberada, quartos com ar...</t>
+  </si>
+  <si>
+    <t>VIVA COM A SOFISTICAÇÃO DE UM PROJETO EXCLUSIVO, E A PAISAGEM MAIS BONITA DO RIO.</t>
+  </si>
+  <si>
+    <t>Excelente localização, pertinho de todos os comércios do bairro, transporte e lazer. Prédio estritamente residencial, portaria 24h, circuito de tv. Apartamento composto de sala em...</t>
+  </si>
+  <si>
+    <t>Zygel imóveis vende! Rua Anita Garibaldi. Apartamento com 303m² no iptu. Distribuídos em salão em vários ambientes, sala de jantar, sala de almoço, lavabo, 4 enormes quartos sendo...</t>
+  </si>
+  <si>
+    <t>Apartamento com vista para o mar composto por hall de entrada, sala de estar, sala de jantar, sala de TV, 2 lavabos, sacada, escritório, copa de apoio, original 5 quartos transform...</t>
+  </si>
+  <si>
+    <t>Em Copacabana na 1º quadra. A menos de 5 minutos da Praia. Apartamento conjugadão podendo dividir em 2 cômodos. 1º andar, claro e com vista fundos para um jardim e até se escuta pá...</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 650.000</t>
-  </si>
-  <si>
-    <t>R$ 2.300.000</t>
-  </si>
-  <si>
-    <t>R$ 6.800.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 890 IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>R$ 1.550.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 550 IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 259</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.800 IPTU R$ 413</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.300 IPTU R$ 250</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500 IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>condomínio R$ 520</t>
-  </si>
-  <si>
-    <t>R$ 1.695.000</t>
-  </si>
-  <si>
-    <t>R$ 1.700.000</t>
-  </si>
-  <si>
-    <t>R$ 900.000</t>
-  </si>
-  <si>
-    <t>R$ 325.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 724 IPTU R$ 417</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 80</t>
-  </si>
-  <si>
-    <t>condomínio R$ 543 IPTU R$ 1.099</t>
-  </si>
-  <si>
-    <t>R$ 558.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 459 IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>R$ 460.000</t>
-  </si>
-  <si>
-    <t>Rua Machado de Assis, Flamengo</t>
-  </si>
-  <si>
-    <t>condomínio R$ 940 IPTU R$ 169</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.600 IPTU R$ 11.467</t>
-  </si>
-  <si>
-    <t>condomínio R$ 3.700 IPTU R$ 28.000</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO EM COPACABANA!!!! Composto por sala ampla e arejada, quartos espaçosos e com iluminação natural, banheiro com box acrílico, cozinha ampla, com espaço para f...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 4.990</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO NO BAIRRO PEIXOTO!!! Composto por sala ampla e arejada com dois ambientes, dois quartos com armários embutidos, banheiro social, cozinha com armários, área...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis vende: ótimo quarto/sala, cozinha ampla, banheiro reformado, silencioso, área de serviço, dependência completa, excelente localização. O valor do imóvel pode sof...</t>
-  </si>
-  <si>
-    <t>Cód: RFAP30336. Apartamento 3 quartos para vender em Copacabana. Maravilhoso apartamento com cômodos amplos totalmente reformado em Copacabana. São 210 m2 com sala, 3 amplas suítes...</t>
-  </si>
-  <si>
-    <t>Barata Ribeiro(Ligue direto zap 9.9.2.5.7.3.1.4.9 corretor Arnaldo)- (Posto 4 )- andar alto, frente, 2 salas, 3 quartos com armários, suíte, banheiro social, cozinha, área, dependê...</t>
-  </si>
-  <si>
-    <t>Vende-se apartamento finamente mobiliado, com 40 metros fundos, silencioso, cozinha equipada com máquina de lavar, Encontra-se em mobiliado com sofá cama, Tv, ar refrigerado, cama...</t>
-  </si>
-  <si>
-    <t>Excelente conjugado localizado em Copacabana</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 392</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.700 IPTU R$ 4.261</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.250 IPTU R$ 317</t>
-  </si>
-  <si>
-    <t>condomínio R$ 690 IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>Oportunidade única! Preço para vender rápido!</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO CONJUGADO DIVIDIDO EM SALA E QUARTO!!! Sala e quarto amplo, claro, arejado e bem ventilado, com iluminação natural, com linda vista para o mar, cozinha ampla com espaço...</t>
-  </si>
-  <si>
-    <t>COPACABANA, EXCELENTE LOCALIZAÇÃO, POSTO 5, DJALMA ULRICH, SILENCIOSO, VISTA LIVRE, INDEVASSADO, 60m2 (NO IPTU), COMPOSTO DE SALA, 2 QUARTOS, BANHEIRO SOCIAL GRANDE COM BANHEIRA E...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 680 IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO CONJUGADÃO DIVIDO EM SALA QUARTO!!! Apartamento amplo claro e arejado, composto de sala ampla e arejada, quarto amplo, claro e arejado, cozinha ampla cabendo fogão e ge...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>80 - 1000 m²</t>
-  </si>
-  <si>
-    <t>Cód: VEAP20992. Localizado em bairro tradicional com amplo comércio, próximo a estação de metrô e ao posto 5 da praia - prédio com portaria 24h., dispõe de uma área de lazer para p...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis Vende: Maravilhoso imóvel localizado na área mais arborizada e luxuosa de Copacabana, apartamento feito com material de qualidade, sala com dois ambientes, jardi...</t>
-  </si>
-  <si>
-    <t>ATLÂNTICA EDIFICIO TRADICIONAL COD.: 26745</t>
-  </si>
-  <si>
-    <t>Localizado próximo ao metrô, praia e vasto comércio. Apartamento claro, arejado, posição frente com vista livre, 150 m2, composto por sala para dois ambientes, lavabo, 4 quartos (1...</t>
-  </si>
-  <si>
-    <t>Conjugado reformado, semi mobiliado, perto de vias de acesso, com um ambiente claro e bastante arejado.</t>
-  </si>
-  <si>
-    <t>Ótima quadra, ao lado do Bairro Peixoto e da saída do Metrô na Rua Figueiredo Magalhães, prédio com portaria 24h e 1 apartamento por andar. Apartamento amplo, claro e arejado, com...</t>
-  </si>
-  <si>
-    <t>Cód: COB-2191. COPACABANA - AMPLÍSSIMA COBERTURA COM VARANDÃO! Terração com Piscina e Sauna. Amplo Salão, Sala de jantar, 3 quartos sendo 2 suítes com ótimos armários, 1 Escritório...</t>
-  </si>
-  <si>
-    <t>Imóvel fundos, reformado com 100 metros , original 3 atualmente com 2 quartos sendo 1 suite com armários, home office , banheiro social , sala ampla com 3 ambientes, cozinha com ar...</t>
-  </si>
-  <si>
-    <t>BARATA RIBEIRO 370 LOJA A VENDA NO 3 PISO Colado a Rua Siqueira Campos ,próximo de metro e comercio e geral Vazia pronta entrega Visitas Gabriel 99972 05 30 Creci 37.024</t>
-  </si>
-  <si>
-    <t>Loja com 48m² em um dos principais Centros Comerciais de Copacabana, na Rua Santa Clara esquina com Av. Nossa Senhora.</t>
-  </si>
-  <si>
-    <t>Copacabana,Excelente Sala e Quarto Separados com Dependências. Prédio bem administrado, Portaria 24 horas com circuito TV. Apartamento claro, silencioso, composto : hall de entrada...</t>
-  </si>
-  <si>
-    <t>Estada Imóveis Vende: Ótima oportunidade em rua transversal, sala e quarto em piso taco. suíte, cozinha com área de serviço acoplada, frontal, sol da manhã, prédio estritamente res...</t>
-  </si>
-  <si>
-    <t>Atlântica vista total do Leme ao Posto Seis, edifício tradicional com portaria 24 hs, muito bem conservado. Espaçoso apartamento, anda...</t>
-  </si>
-  <si>
-    <t>Rua Ministro Alfredo Valadão, Copacabana</t>
+    <t>Privilégio Imóveis Vende :- Excelente apto reformado, rua c/ guarita, super tranquila,Vista Indevassável, frente, sol da manhã,play, salão de festa - Varandão, 2 vagas na escritura...</t>
+  </si>
+  <si>
+    <t>RSC IMÓVEIS LTDA VENDE Excelente apartamento no Bairro Peixoto, com 112m2 divididos em 2 quartos, 1 banheiro social, ampla sala em 3 ambientes, hall de entrada, copa cozinha com ár...</t>
+  </si>
+  <si>
+    <t>No coração de Copacabana, colado já praia e proximo a todo o comércio fica este conjugado amplo, co...</t>
+  </si>
+  <si>
+    <t>Administra Rio vende: apartamento excelente em andar alto, fundos com vista livre, claro e arejado composto de sala ampla com longo hall de entrada, todo em piso frio, três quartos...</t>
+  </si>
+  <si>
+    <t>Confortável apartamento, excelente prédio, boa sala com pequena varanda e vista verde, 2 quartos com armários, sendo 1 suite, 1 banheiro soc...</t>
+  </si>
+  <si>
+    <t>Cód: VEAP10613. Localizado em rua transversal e arborizada, próxima ao Bairro Peixoto e ao metrô, em região de farto comércio - Prédio gradeado com portaria 24 horas - Apartamento...</t>
+  </si>
+  <si>
+    <t>-Rev.21Out</t>
+  </si>
+  <si>
+    <t>Cód: NSAP11150. Atenção Copacabana, Apartamento de 50m2 composto de: 01 quarto, 01 banheiro social com box em blindex, com possibilidade de fazer suite e cozinha. Apartamento claro...</t>
+  </si>
+  <si>
+    <t>AFASA Imóveis, vende apartamento em Copacabana, Rua Barata Ribeiro, aproximadamente 45m², sala aconchegante, 2 suítes, 2 banheiros, cozinha, área de serviço e dependência completa....</t>
+  </si>
+  <si>
+    <t>Fale...</t>
+  </si>
+  <si>
+    <t>Copacabana, Rio de Janeiro</t>
   </si>
   <si>
     <t>Rua Maestro Francisco Braga, Copacabana</t>
   </si>
   <si>
+    <t>Rua Santa Clara, Copacabana</t>
+  </si>
+  <si>
+    <t>sensação de estar em uma casa!</t>
+  </si>
+  <si>
+    <t>O You Botafogo traz tudo o que você e sua família procuram. Ampla área de lazer, localizaçã...</t>
+  </si>
+  <si>
+    <t>Rua Constante Ramos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Anita Garibaldi, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Paula Freitas, Copacabana</t>
+  </si>
+  <si>
+    <t>127 m²</t>
+  </si>
+  <si>
+    <t>Rua Marechal Mascarenhas de Morais, Copacabana</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Rua Domingos Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
+  </si>
+  <si>
+    <t>148 m²</t>
+  </si>
+  <si>
+    <t>Rua Figueiredo Magalhães, Copacabana</t>
+  </si>
+  <si>
+    <t>66 m²</t>
+  </si>
+  <si>
+    <t>79 m²</t>
+  </si>
+  <si>
+    <t>Rua Sá Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
     <t>Rua Barata Ribeiro, Copacabana</t>
   </si>
   <si>
-    <t>Rua Sá Ferreira, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Apartamento composto por...</t>
-  </si>
-  <si>
-    <t>Possui um...</t>
-  </si>
-  <si>
-    <t>Rua Bolivar, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Djalma Ulrich, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Assis Brasil, Copacabana</t>
+    <t>114 m²</t>
+  </si>
+  <si>
+    <t>108 m²</t>
+  </si>
+  <si>
+    <t>303 m²</t>
+  </si>
+  <si>
+    <t>667 m²</t>
+  </si>
+  <si>
+    <t>31 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>92 m²</t>
+  </si>
+  <si>
+    <t>112 m²</t>
+  </si>
+  <si>
+    <t>38 m²</t>
+  </si>
+  <si>
+    <t>125 m²</t>
+  </si>
+  <si>
+    <t>77 m²</t>
+  </si>
+  <si>
+    <t>48 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sala ampla</t>
   </si>
   <si>
     <t>70 m²</t>
   </si>
   <si>
-    <t>Rua Tonelero, Copacabana</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>52 m²</t>
-  </si>
-  <si>
-    <t>210 m²</t>
-  </si>
-  <si>
-    <t>110 m²</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>Copacabana, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Praça Eugênio Jardim, Copacabana</t>
+    <t>50 m²</t>
   </si>
   <si>
     <t>45 m²</t>
   </si>
   <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>Rua Figueiredo Magalhães, Copacabana</t>
-  </si>
-  <si>
-    <t>46 m²</t>
-  </si>
-  <si>
-    <t>Rua Belfort Roxo, Copacabana</t>
-  </si>
-  <si>
-    <t>62 m²</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>150 m²</t>
+    <t>Rua Real Grandeza, Botafogo</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>165 m²</t>
-  </si>
-  <si>
-    <t>156 m²</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>28 m²</t>
-  </si>
-  <si>
-    <t>57 m²</t>
-  </si>
-  <si>
-    <t>43 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>395 m²</t>
-  </si>
-  <si>
-    <t>32 m²</t>
-  </si>
-  <si>
-    <t>48 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>dois quartos</t>
+  </si>
+  <si>
+    <t>74 - 78 m²</t>
+  </si>
+  <si>
+    <t>banheiro social</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>cozinha</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>área de serviço</t>
+  </si>
+  <si>
+    <t>dependências completas</t>
+  </si>
+  <si>
+    <t>ap...</t>
+  </si>
+  <si>
+    <t>Praça Vereador Rocha Leão, Copacabana</t>
+  </si>
+  <si>
+    <t>73 m²</t>
   </si>
 </sst>
 </file>
@@ -725,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -768,754 +786,841 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>112</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
         <v>104</v>
       </c>
-      <c r="L15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>115</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>112</v>
+      </c>
+      <c r="K20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>112</v>
+      </c>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
